--- a/src/files/rol/ATIVADO.xlsx
+++ b/src/files/rol/ATIVADO.xlsx
@@ -15248,18 +15248,18 @@
   </sheetPr>
   <dimension ref="A1:AD911"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
@@ -15267,12 +15267,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="60.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="60.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.86"/>
@@ -15440,7 +15440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
